--- a/Week6/dictionary/s2021_nh.new.xlsx
+++ b/Week6/dictionary/s2021_nh.new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10816"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10818"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidtorres/Code/NU/TIM7020/Week6/dictionary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF5DCB9-37F9-AD43-A43A-12136056E2A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0375E2E-583B-6842-B04A-A6BA203CB9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6640" yWindow="13940" windowWidth="14400" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23520" yWindow="3740" windowWidth="31060" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="varlist" sheetId="1" r:id="rId1"/>
@@ -827,10 +827,13 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -895,7 +898,7 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
